--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2154660.235789118</v>
+        <v>2212723.548182617</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484453</v>
+        <v>278692.0725916866</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5580744.951753572</v>
+        <v>5645683.044057328</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>179.3677409161185</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -674,7 +674,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>288.4756254950766</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>279.7334468998417</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>64.58216279976261</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>360.9100771515867</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>287.0790000802538</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.482496146593999</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>66.09580736876525</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>310.6883293919657</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217563</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>91.3922693100219</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.30825486907185</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.64034175572525</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,10 +1822,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="W16" t="n">
-        <v>187.5234134555186</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.0540666443734</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>129.7139627068451</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>131.3131589043799</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2378,7 +2378,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430779</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225301</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>82.64119670414925</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>28.46824604904451</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117751</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>137.5995661138217</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225779</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800598</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>344.5576664477351</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>32.67077719907027</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170442</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,10 +4189,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436895</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.2911052642175</v>
+        <v>991.498727323736</v>
       </c>
       <c r="C2" t="n">
-        <v>521.1890364880448</v>
+        <v>810.3191910448285</v>
       </c>
       <c r="D2" t="n">
-        <v>489.3196557028934</v>
+        <v>778.4498102596771</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4331,22 +4331,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1405.79390937832</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1000.938454789353</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>985.8363954090679</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.5502717087213</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.5349435757807</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C4" t="n">
-        <v>199.5349435757807</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5349435757807</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1136.191392060955</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>864.164987647247</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>618.7732329806595</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.3535622947678</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>500.4187672127687</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986526</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1975.120543515258</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2159.002379407679</v>
       </c>
       <c r="W5" t="n">
-        <v>1407.204642120565</v>
+        <v>1754.146924818712</v>
       </c>
       <c r="X5" t="n">
-        <v>988.0621786998757</v>
+        <v>1335.004461398023</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>926.7183376976765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970922</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>989.5883728917329</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>817.0266613749578</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>651.1486685764805</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>481.3906648272178</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>304.6836107889741</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2491.633330253372</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2213.200329506477</v>
       </c>
       <c r="V7" t="n">
-        <v>1630.419988293786</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>1358.393583880077</v>
+        <v>1654.218416963199</v>
       </c>
       <c r="X7" t="n">
-        <v>1113.00182921349</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.9560900011804</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>437.0247332457074</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>437.0247332457074</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>437.0247332457074</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>437.0247332457074</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1382.541784186435</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.2556604860882</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884174</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>998.0484328177151</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C13" t="n">
-        <v>825.4867213009398</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D13" t="n">
-        <v>659.6087285024626</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E13" t="n">
-        <v>489.8507247531999</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F13" t="n">
-        <v>313.143670714956</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
-        <v>147.5523957407837</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881912</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583903</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503607</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177151</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847301</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939379</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172013</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2029.841770713472</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.80576642952</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612943</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548905</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781543</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>98.5833484213709</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.5833484213709</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>495.6147707421545</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.965062700332</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953191</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953191</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953191</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523498</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356894</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315489</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068545</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252382</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125421</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442437</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376263</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787296</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366607</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566626</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126637</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.298632249306</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958592</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228129</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389745</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051584</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.5833484213709</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818285</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480408</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.544773713206</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924268</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1005.079797516477</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047179999</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687373</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304934</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G19" t="n">
-        <v>327.145471956321</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.5833484213709</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860607</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571963</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251574</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2561.185582580674</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2315.306136159129</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2036.873135412235</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1749.917627282665</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.891222868957</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X19" t="n">
-        <v>1232.499468202369</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y19" t="n">
-        <v>1005.079797516477</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,22 +5759,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5844,7 +5844,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5911,28 +5911,28 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S22" t="n">
         <v>2700.681281130895</v>
@@ -5944,7 +5944,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
         <v>1617.386921419177</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,34 +5996,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6403,10 +6403,10 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S28" t="n">
         <v>2700.681281130895</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883921</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716171</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731398</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>473.3149733731398</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>296.6079193348959</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>131.0166443607236</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6655,13 +6655,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
         <v>1003.573296407379</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6938,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>816.2774823142732</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>646.5194785650056</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>469.8124245267618</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460639001</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640438</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873076</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305239</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305239</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834418</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410839</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410839</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981145</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814541</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773137</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526193</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.02155271003</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583068</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900084</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833911</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244944</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824255</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123908</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218166</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584589</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050122</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319659</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481275</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143114</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305239</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909815</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571938</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571938</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571938</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571938</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571938</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571938</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.374893822359</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015798</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.811679917081</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>918.2499684003056</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>752.3719756018284</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>582.6139718525656</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>405.9069178143218</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>240.3156428401493</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305239</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305239</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952137</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663493</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343103</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2592.85663727872</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2314.423636531825</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>2027.468128402255</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1755.441723988547</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1510.049969321959</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.630298636068</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940404</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940404</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.83610851071</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344106</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055758</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.798049006191</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257034</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.2298140987272</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>633.6681025819521</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>467.7901097834749</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>298.0321060342121</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>121.3250519959681</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111516</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111516</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354675</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066031</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745641</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955477</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176946</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755401</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2292.381813755401</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503606</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177142</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>243.6685872558646</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>401.0418407280642</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,7 +9644,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-3.349733301675956e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288887</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>88.19489769745738</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5985112554906</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="W16" t="n">
-        <v>81.78272691405274</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177.9825081356853</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>26.33579611060341</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627303</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>88.19489769745806</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0349065174847</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>26.33579611060892</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.20338164067587</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>185.1957776566215</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>111.4236523045843</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>488664.7344967188</v>
+        <v>490778.454900598</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>488664.7344967188</v>
+        <v>491159.0349082522</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>467866.2101939883</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>467866.2101939882</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474468.257443746</v>
+        <v>487610.698903327</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>487610.6989033271</v>
+        <v>487610.6989033272</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>487610.6989033271</v>
+        <v>487610.698903327</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481008.6516535692</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>467866.2101939882</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
   </sheetData>
@@ -26317,28 +26317,28 @@
         <v>455725.2219068472</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>429695.313275925</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="G2" t="n">
-        <v>435758.7320470109</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="I2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="K2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="K2" t="n">
-        <v>447828.9465167495</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167496</v>
@@ -26347,13 +26347,13 @@
         <v>447828.9465167494</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>441765.5277456632</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.3132759248</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042849956</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996393</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877246</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>130243.4307963244</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407851</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
-        <v>14245.2055704926</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="J4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049257</v>
       </c>
       <c r="K4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
+        <v>14245.20557049257</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14245.20557049259</v>
+      </c>
+      <c r="O4" t="n">
         <v>14245.20557049264</v>
       </c>
-      <c r="N4" t="n">
-        <v>14245.20557049264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14052.33137706246</v>
-      </c>
       <c r="P4" t="n">
-        <v>13668.38414064832</v>
+        <v>14245.20557049258</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024189</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319814</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>78808.89324480406</v>
       </c>
       <c r="C6" t="n">
-        <v>221000.1939045139</v>
+        <v>186937.8094075042</v>
       </c>
       <c r="D6" t="n">
-        <v>221000.1939045139</v>
+        <v>247854.2485699715</v>
       </c>
       <c r="E6" t="n">
-        <v>108152.5648355918</v>
+        <v>173487.1687800321</v>
       </c>
       <c r="F6" t="n">
-        <v>342507.586857629</v>
+        <v>355842.2780010818</v>
       </c>
       <c r="G6" t="n">
-        <v>340644.9178698406</v>
+        <v>355842.2780010817</v>
       </c>
       <c r="H6" t="n">
-        <v>343462.7473605003</v>
+        <v>355842.2780010819</v>
       </c>
       <c r="I6" t="n">
-        <v>355865.5023404644</v>
+        <v>355842.2780010818</v>
       </c>
       <c r="J6" t="n">
-        <v>244851.0369954742</v>
+        <v>244827.8126560916</v>
       </c>
       <c r="K6" t="n">
-        <v>355865.5023404643</v>
+        <v>302796.4233623093</v>
       </c>
       <c r="L6" t="n">
-        <v>355865.5023404644</v>
+        <v>346449.9762744593</v>
       </c>
       <c r="M6" t="n">
-        <v>160264.3230573966</v>
+        <v>203642.1070630941</v>
       </c>
       <c r="N6" t="n">
-        <v>355865.5023404642</v>
+        <v>355842.2780010818</v>
       </c>
       <c r="O6" t="n">
-        <v>351398.9602854027</v>
+        <v>355842.2780010817</v>
       </c>
       <c r="P6" t="n">
-        <v>342507.586857629</v>
+        <v>355842.2780010817</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267136</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631548</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319684</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319684</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>254.3933071722925</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>70.51515507043513</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27549,13 +27549,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4.352506148432155</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.5633111792702</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>72.85097093682418</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27673,10 +27673,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>234.9381558107353</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>217.9901456795086</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>212.8683581419007</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>104.2627093945167</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-3.80113754039794e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-7.982036788712661e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-5.397385521753796e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-2.011004675682931e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>243.6685872558646</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.4542274390807</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>401.0418407280642</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,25 +35963,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956037</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,7 +36364,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-2.268258214386391e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288887</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743907865</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
